--- a/profile_data/lightgbm/ED_mc_gbm.xlsx
+++ b/profile_data/lightgbm/ED_mc_gbm.xlsx
@@ -339,13 +339,12 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1009" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -465,26 +464,62 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3852</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3185</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3105</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>991</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="0" t="n">
+        <v>2767</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2601</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>5259</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3208</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2592</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2279</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -1586,7 +1621,7 @@
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
@@ -1732,13 +1767,10 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1008" style="0" width="10.5"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1857,26 +1889,62 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="0" t="n">
+        <v>4252</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2248</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2163</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3618</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2256</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3815</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2027</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2886</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="0" t="n">
+        <v>5082</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4583</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>7061</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4617</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5725</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>4077</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4452</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2794</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -2978,7 +3046,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="17.84"/>
@@ -3194,7 +3262,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.53"/>
@@ -3406,7 +3474,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
@@ -3600,7 +3668,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.77"/>
@@ -3820,7 +3888,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
@@ -3970,7 +4038,7 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
@@ -4117,7 +4185,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">

--- a/profile_data/lightgbm/ED_mc_gbm.xlsx
+++ b/profile_data/lightgbm/ED_mc_gbm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="edm" sheetId="1" state="visible" r:id="rId2"/>
@@ -338,11 +338,11 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.83"/>
   </cols>
@@ -1621,7 +1621,7 @@
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
@@ -1766,11 +1766,11 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3046,7 +3046,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="17.84"/>
@@ -3262,7 +3262,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.53"/>
@@ -3474,7 +3474,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
@@ -3668,7 +3668,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.77"/>
@@ -3888,7 +3888,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
@@ -4038,7 +4038,7 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">
@@ -4185,7 +4185,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="n">

--- a/profile_data/lightgbm/ED_mc_gbm.xlsx
+++ b/profile_data/lightgbm/ED_mc_gbm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="edm" sheetId="1" state="visible" r:id="rId2"/>
@@ -170,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +188,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,8 +342,8 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,147 +382,147 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1241</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>671</v>
+        <v>67</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2491</v>
+        <v>249</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1990</v>
+        <v>199</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1940</v>
+        <v>194</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>942</v>
+        <v>94</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>725</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>778</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-264</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1333</v>
+        <v>133</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>-411</v>
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>247</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2738</v>
+        <v>274</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1035</v>
+        <v>104</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3795</v>
+        <v>380</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3147</v>
+        <v>315</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4099</v>
+        <v>410</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1783</v>
+        <v>178</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>510</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1629</v>
+        <v>163</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3852</v>
+        <v>385</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3185</v>
+        <v>319</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3105</v>
+        <v>311</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>991</v>
+        <v>99</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>2767</v>
+        <v>277</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2601</v>
+        <v>260</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1575</v>
+        <v>158</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1056</v>
+        <v>106</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5259</v>
+        <v>526</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3208</v>
+        <v>321</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2592</v>
+        <v>259</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>2279</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,59 +537,59 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
@@ -1624,122 +1628,122 @@
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>114</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>680</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>1506</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>243</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>264</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>467</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>937</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>2729</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>8961</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>192</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>268</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>388</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>796</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>2733</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>8328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>109</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>164</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>538</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1766,8 +1770,8 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1803,147 +1807,147 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3780</v>
+        <v>378</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>7865</v>
+        <v>787</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2685</v>
+        <v>269</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1789</v>
+        <v>179</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>9986</v>
+        <v>999</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3792</v>
+        <v>379</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>8154</v>
+        <v>815</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2572</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>4781</v>
+        <v>478</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>12252</v>
+        <v>1225</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3379</v>
+        <v>338</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>5720</v>
+        <v>572</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>12089</v>
+        <v>1209</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3433</v>
+        <v>343</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4727</v>
+        <v>473</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>12655</v>
+        <v>1266</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2705</v>
+        <v>271</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>7871</v>
+        <v>787</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3907</v>
+        <v>391</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4173</v>
+        <v>417</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>8479</v>
+        <v>848</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1281</v>
+        <v>-128</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>4236</v>
+        <v>424</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>8038</v>
+        <v>804</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1882</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4252</v>
+        <v>425</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>521</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2248</v>
+        <v>225</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2163</v>
+        <v>216</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3618</v>
+        <v>362</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2256</v>
+        <v>226</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3815</v>
+        <v>382</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2027</v>
+        <v>203</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>2886</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5082</v>
+        <v>508</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4583</v>
+        <v>458</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3600</v>
+        <v>360</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7061</v>
+        <v>706</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4617</v>
+        <v>462</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5725</v>
+        <v>573</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4077</v>
+        <v>408</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>4452</v>
+        <v>445</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>2794</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,117 +3052,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+    <row r="1" s="6" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>734</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>968</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>1493</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>2430</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>6936</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>15204</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>1311</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>1643</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>2705</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>4827</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>14002</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>29602</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>1408</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>1754</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>2903</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>4727</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>14310</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>30578</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>521</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>613</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>984</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>1630</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>5044</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>10472</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
@@ -3166,77 +3170,77 @@
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3273,176 +3277,176 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>86</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>210</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>670</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>1471</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>214</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>410</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>1559</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>2591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>126</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>270</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>351</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>1230</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>2487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>106</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>170</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>523</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>1133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3485,155 +3489,155 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>158</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>294</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>889</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>1987</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>114</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>439</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>496</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>695</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>2484</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>7467</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>206</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>338</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>442</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>672</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>2641</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>9076</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>83</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>203</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>725</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>1494</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3679,184 +3683,184 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>72</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>118</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>201</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>643</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>1382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>232</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>267</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>509</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>901</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>2296</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>4648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>199</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>274</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>522</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>855</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>2184</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>4245</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>170</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>554</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>1131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3891,122 +3895,122 @@
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>612</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>240</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>438</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>262</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>443</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>732</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>4823</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>186</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4041,120 +4045,120 @@
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>93</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>524</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>1109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>143</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>305</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>513</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>1739</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>4254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>153</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>162</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>286</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>509</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>1778</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>4252</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>145</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>463</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>973</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4188,121 +4192,121 @@
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="n">
+      <c r="A1" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="n">
+      <c r="B1" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="n">
+      <c r="C1" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="n">
+      <c r="D1" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E1" s="7" t="n">
+      <c r="E1" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="n">
+      <c r="F1" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>515</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>1035</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>136</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>262</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>393</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>1713</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>4339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>115</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>154</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>245</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>397</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>1546</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>4118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>157</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>470</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>1019</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="J6" s="16"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/profile_data/lightgbm/ED_mc_gbm.xlsx
+++ b/profile_data/lightgbm/ED_mc_gbm.xlsx
@@ -340,13 +340,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.83"/>
   </cols>
@@ -498,87 +498,159 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B10" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>526</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -592,48 +664,48 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
@@ -1602,6 +1674,50 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1625,7 +1741,7 @@
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
@@ -1768,13 +1884,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1923,76 +2039,148 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>572</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>473</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>848</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-128</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>804</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B10" s="0" t="n">
         <v>458</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>706</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>462</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>573</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>408</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>445</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
@@ -3027,6 +3215,50 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3050,7 +3282,7 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.73828125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="17.84"/>
@@ -3266,7 +3498,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.53"/>
@@ -3478,7 +3710,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
@@ -3672,7 +3904,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.77"/>
@@ -3892,7 +4124,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
@@ -4042,7 +4274,7 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
@@ -4189,7 +4421,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
